--- a/ITI/SVCM/StructureDefinition-IHE.SVCM.ConceptMap.xlsx
+++ b/ITI/SVCM/StructureDefinition-IHE.SVCM.ConceptMap.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-12T07:19:57-05:00</t>
+    <t>2022-10-21T14:30:40-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -258,10 +258,6 @@
     <t>A statement of relationships from one set of concepts to one or more other concepts - either concepts in code systems, or data element/data element concepts, or classes in class models.</t>
   </si>
   <si>
-    <t>cmd-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}
-dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -274,7 +270,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -498,6 +494,10 @@
   </si>
   <si>
     <t>ConceptMap.version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Business version of the concept map</t>
@@ -1721,10 +1721,10 @@
         <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>76</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1749,28 +1749,28 @@
         <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1820,13 +1820,13 @@
         <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>76</v>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1860,25 +1860,25 @@
         <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1929,19 +1929,19 @@
         <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>76</v>
@@ -1958,7 +1958,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1969,28 +1969,28 @@
         <v>77</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2040,19 +2040,19 @@
         <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>76</v>
@@ -2069,7 +2069,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2080,7 +2080,7 @@
         <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>76</v>
@@ -2092,16 +2092,16 @@
         <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2127,43 +2127,43 @@
         <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>76</v>
@@ -2180,18 +2180,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>76</v>
@@ -2203,16 +2203,16 @@
         <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2262,22 +2262,22 @@
         <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>76</v>
@@ -2291,11 +2291,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2314,16 +2314,16 @@
         <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2373,7 +2373,7 @@
         <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>77</v>
@@ -2388,7 +2388,7 @@
         <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>76</v>
@@ -2402,11 +2402,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2425,16 +2425,16 @@
         <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2484,7 +2484,7 @@
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>77</v>
@@ -2496,10 +2496,10 @@
         <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
@@ -2513,11 +2513,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2530,25 +2530,25 @@
         <v>76</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>76</v>
@@ -2597,7 +2597,7 @@
         <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -2609,10 +2609,10 @@
         <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
@@ -2626,7 +2626,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2634,34 +2634,34 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F11" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J11" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>76</v>
@@ -2710,28 +2710,28 @@
         <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>76</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2750,31 +2750,31 @@
         <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>76</v>
@@ -2823,36 +2823,36 @@
         <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2863,19 +2863,19 @@
         <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>156</v>
@@ -2934,19 +2934,19 @@
         <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>76</v>
@@ -2974,19 +2974,19 @@
         <v>77</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>162</v>
@@ -3053,13 +3053,13 @@
         <v>77</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>166</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>76</v>
@@ -3087,19 +3087,19 @@
         <v>77</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>168</v>
@@ -3164,13 +3164,13 @@
         <v>77</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>76</v>
@@ -3195,22 +3195,22 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H16" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="I16" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>173</v>
@@ -3272,16 +3272,16 @@
         <v>172</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>76</v>
@@ -3309,16 +3309,16 @@
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>182</v>
@@ -3388,13 +3388,13 @@
         <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>76</v>
@@ -3422,16 +3422,16 @@
         <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>190</v>
@@ -3499,13 +3499,13 @@
         <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>76</v>
@@ -3533,19 +3533,19 @@
         <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>197</v>
@@ -3612,13 +3612,13 @@
         <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>76</v>
@@ -3655,7 +3655,7 @@
         <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>204</v>
@@ -3729,7 +3729,7 @@
         <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>76</v>
@@ -3757,7 +3757,7 @@
         <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>76</v>
@@ -3834,16 +3834,16 @@
         <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>214</v>
@@ -3877,7 +3877,7 @@
         <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>216</v>
@@ -3953,7 +3953,7 @@
         <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>76</v>
@@ -3990,7 +3990,7 @@
         <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>223</v>
@@ -4064,7 +4064,7 @@
         <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>76</v>
@@ -4092,7 +4092,7 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>76</v>
@@ -4169,13 +4169,13 @@
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>76</v>
@@ -4187,7 +4187,7 @@
         <v>236</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25">
@@ -4203,7 +4203,7 @@
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>76</v>
@@ -4282,13 +4282,13 @@
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>76</v>
@@ -4300,7 +4300,7 @@
         <v>76</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26">
@@ -4316,16 +4316,16 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>245</v>
@@ -4393,13 +4393,13 @@
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>76</v>
@@ -4427,16 +4427,16 @@
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>245</v>
@@ -4504,13 +4504,13 @@
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>76</v>
@@ -4619,7 +4619,7 @@
         <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>76</v>
@@ -4647,7 +4647,7 @@
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>76</v>
@@ -4659,7 +4659,7 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>258</v>
@@ -4722,7 +4722,7 @@
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>76</v>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4768,16 +4768,16 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>263</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4839,7 +4839,7 @@
         <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>261</v>
@@ -4873,13 +4873,13 @@
         <v>76</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>267</v>
@@ -4888,10 +4888,10 @@
         <v>268</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>76</v>
@@ -4952,10 +4952,10 @@
         <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>76</v>
@@ -4980,7 +4980,7 @@
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>76</v>
@@ -4992,7 +4992,7 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>271</v>
@@ -5057,13 +5057,13 @@
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>76</v>
@@ -5091,7 +5091,7 @@
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>76</v>
@@ -5103,7 +5103,7 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>275</v>
@@ -5168,13 +5168,13 @@
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>76</v>
@@ -5202,7 +5202,7 @@
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>76</v>
@@ -5214,7 +5214,7 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>279</v>
@@ -5279,13 +5279,13 @@
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>76</v>
@@ -5313,7 +5313,7 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>76</v>
@@ -5325,7 +5325,7 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>275</v>
@@ -5390,13 +5390,13 @@
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>76</v>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>78</v>
@@ -5498,7 +5498,7 @@
         <v>283</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5507,7 +5507,7 @@
         <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>76</v>
@@ -5535,7 +5535,7 @@
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>76</v>
@@ -5547,7 +5547,7 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>258</v>
@@ -5610,7 +5610,7 @@
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>76</v>
@@ -5637,7 +5637,7 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5656,16 +5656,16 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>263</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5727,7 +5727,7 @@
         <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>261</v>
@@ -5761,13 +5761,13 @@
         <v>76</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>267</v>
@@ -5776,10 +5776,10 @@
         <v>268</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>76</v>
@@ -5840,10 +5840,10 @@
         <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>76</v>
@@ -5868,7 +5868,7 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>76</v>
@@ -5880,7 +5880,7 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>292</v>
@@ -5943,13 +5943,13 @@
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>76</v>
@@ -5977,7 +5977,7 @@
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>76</v>
@@ -5989,7 +5989,7 @@
         <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>295</v>
@@ -6054,13 +6054,13 @@
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>76</v>
@@ -6199,7 +6199,7 @@
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>76</v>
@@ -6211,7 +6211,7 @@
         <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>258</v>
@@ -6274,7 +6274,7 @@
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>76</v>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6320,16 +6320,16 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>263</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6391,7 +6391,7 @@
         <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>261</v>
@@ -6425,13 +6425,13 @@
         <v>76</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>267</v>
@@ -6440,10 +6440,10 @@
         <v>268</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>76</v>
@@ -6504,10 +6504,10 @@
         <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>76</v>
@@ -6532,7 +6532,7 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>76</v>
@@ -6544,7 +6544,7 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>307</v>
@@ -6607,13 +6607,13 @@
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>76</v>
@@ -6641,7 +6641,7 @@
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>76</v>
@@ -6653,7 +6653,7 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>295</v>
@@ -6718,13 +6718,13 @@
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>76</v>
@@ -6749,22 +6749,22 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H48" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F48" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="I48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>311</v>
@@ -6826,16 +6826,16 @@
         <v>310</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>76</v>
@@ -6863,7 +6863,7 @@
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>76</v>
@@ -6875,7 +6875,7 @@
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>317</v>
@@ -6938,13 +6938,13 @@
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>319</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>76</v>
@@ -7053,7 +7053,7 @@
         <v>76</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>76</v>
@@ -7081,7 +7081,7 @@
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>76</v>
@@ -7093,7 +7093,7 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>258</v>
@@ -7156,7 +7156,7 @@
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>76</v>
@@ -7183,7 +7183,7 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7202,16 +7202,16 @@
         <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>263</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7273,7 +7273,7 @@
         <v>76</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>261</v>
@@ -7307,13 +7307,13 @@
         <v>76</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>267</v>
@@ -7322,10 +7322,10 @@
         <v>268</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>76</v>
@@ -7386,10 +7386,10 @@
         <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>76</v>
@@ -7411,10 +7411,10 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>76</v>
@@ -7426,7 +7426,7 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>327</v>
@@ -7486,16 +7486,16 @@
         <v>326</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>76</v>
@@ -7523,7 +7523,7 @@
         <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>76</v>
@@ -7600,13 +7600,13 @@
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>76</v>
@@ -7631,10 +7631,10 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>76</v>
@@ -7646,7 +7646,7 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>335</v>
@@ -7706,16 +7706,16 @@
         <v>334</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>76</v>
@@ -7743,7 +7743,7 @@
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>76</v>
@@ -7755,7 +7755,7 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>338</v>
@@ -7820,13 +7820,13 @@
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>76</v>
@@ -7935,7 +7935,7 @@
         <v>76</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>76</v>
@@ -7963,7 +7963,7 @@
         <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>76</v>
@@ -8040,7 +8040,7 @@
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>76</v>
@@ -8074,7 +8074,7 @@
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>76</v>
@@ -8086,7 +8086,7 @@
         <v>76</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>258</v>
@@ -8149,7 +8149,7 @@
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>76</v>
@@ -8176,7 +8176,7 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8195,16 +8195,16 @@
         <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L61" t="s" s="2">
         <v>263</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8266,7 +8266,7 @@
         <v>76</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>261</v>
@@ -8300,13 +8300,13 @@
         <v>76</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>267</v>
@@ -8315,10 +8315,10 @@
         <v>268</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>76</v>
@@ -8379,10 +8379,10 @@
         <v>76</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>76</v>
@@ -8404,10 +8404,10 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>76</v>
@@ -8419,7 +8419,7 @@
         <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>351</v>
@@ -8479,16 +8479,16 @@
         <v>350</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>76</v>
@@ -8516,7 +8516,7 @@
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>76</v>
@@ -8528,7 +8528,7 @@
         <v>76</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>356</v>
@@ -8591,13 +8591,13 @@
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>76</v>
@@ -8625,7 +8625,7 @@
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>76</v>
@@ -8637,7 +8637,7 @@
         <v>76</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>295</v>
@@ -8702,13 +8702,13 @@
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>76</v>
@@ -8736,7 +8736,7 @@
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>76</v>
@@ -8811,13 +8811,13 @@
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>76</v>
